--- a/Output/CPM/Schedule_vAp0s8d6.xlsx
+++ b/Output/CPM/Schedule_vAp0s8d6.xlsx
@@ -525,7 +525,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MATIAS IGNACIO FERNANDEZ CARRASCO</t>
+          <t>AGUSTIN ALONSO RIFFO QUIROZ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
@@ -556,7 +556,7 @@
         <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -567,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>VICENTE NICOLAS GUTIERREZ FUENTES</t>
+          <t>YAMPIER ALEXANDER ÑANCUCHEO LAGOS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAXIMO ALONSO RODRIGUEZ SAEZ</t>
+          <t>BRUNO OROSMAN MARCHANT LOYOLA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -640,7 +640,7 @@
         <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -651,7 +651,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TRINIDAD DEL CARMEN VALDIVIA VARGAS</t>
+          <t>JULIAN CASTIEL MUÑOZ NOVOA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>TRAUMATO_1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>3</v>
@@ -682,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -693,7 +693,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BENJAMIN AARON SEGUEL PARRA</t>
+          <t>CRISTÓBAL FABIÁN ARIAS POBLETE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ISIDRO ALEJANDRO ARANEDA MEJIAS</t>
+          <t>LEONARDO IGNACIO FUENTES MUÑOZ</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -766,7 +766,7 @@
         <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -777,7 +777,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>VICENTE FABIAN ESCOBAR LUENGO</t>
+          <t>FRANCISCO IGNACIO OLATE MELLADO</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -808,7 +808,7 @@
         <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -819,7 +819,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>JOSE IGNACIO MOYA CUEVAS</t>
+          <t>CRISTOBAL ANTONIO ANDRADES BELTRAN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>YANHI YETSABEL AMARIE GARRIDO GARCIA</t>
+          <t>ANGEL JADIEL MORA FUENTEALBA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>TRAUMATO_1</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -951,17 +951,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>YANHI YETSABEL AMARIE GARRIDO GARCIA</t>
+          <t>JORGE DAVID CUEVAS AGUILERA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>TRAUMATO_1</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -970,19 +970,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -993,17 +993,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>YANHI YETSABEL AMARIE GARRIDO GARCIA</t>
+          <t>AGUSTIN ANDRES PACHECO ORTIZ</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>TRAUMATO_1</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>6</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -1035,17 +1035,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CARLA VICTORIA VEJAR JIMENEZ</t>
+          <t>EMMA ISABELLA ROJAS OÑATE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1054,19 +1054,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1077,17 +1077,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CARLA VICTORIA VEJAR JIMENEZ</t>
+          <t>EMMA ISABELLA ROJAS OÑATE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CARLA VICTORIA VEJAR JIMENEZ</t>
+          <t>IZABELLA ARIADNA PEREZ GOMEZ</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1138,19 +1138,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1161,17 +1161,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>KATALINA BAHAMONDES CARRASCO</t>
+          <t>FLORENCIA JAVIERA MALDONADO RIQUEMLE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1203,17 +1203,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AGUSTÍN MAXIMILIANO SALINAS BELTRÁN</t>
+          <t>BASTIAN ALBERTO CATALAN MARTINEZ</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1222,19 +1222,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>JOAQUIN IGNACIO VERDUGO BURGOS</t>
+          <t>ARTURO ALEN LEMUN MARILEO</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MATIAS ENRIQUE VILLALOBOS URREA</t>
+          <t>JOAQUIN IGNACIO VERDUGO BURGOS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>4</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MATIAS ENRIQUE VILLALOBOS URREA</t>
+          <t>DAVID NICOLAS NOVOA GALLEGOS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>TRAUMATO_1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1380,7 +1380,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>4</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SEBASTIAN ALEJANDRO VARGAS CUEVAS</t>
+          <t>SOFIA DANAE CONEJEROS ULLOA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G28" t="n">
         <v>4</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>JOAQUIN ANIBAL SEPULVEDA CATALAN</t>
+          <t>GUILLERMO TOMAS RIOS BADILLA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1464,7 +1464,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
         <v>4</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ALONSO DAMIAN NOVOA SAEZ</t>
+          <t>GUILLERMO TOMAS RIOS BADILLA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>GINECO_1</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MARTIN GONZALEZ MORIS</t>
+          <t>GUILLERMO TOMAS RIOS BADILLA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CRISTOBAL BASTIAN LUENGO APARICIO</t>
+          <t>LEONOR GUADALUE GONZALEZ PEREIRA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G32" t="n">
         <v>4</v>
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ANGEL COLIN CAMPOS VALENZUELA</t>
+          <t>JOHAN MARCEL FAUNDEZ PARADA</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>TRAUMATO_1</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ANGEL COLIN CAMPOS VALENZUELA</t>
+          <t>SAMUEL ALONSO QUIROZ FUENTES</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CRISTÓBAL FABIÁN ARIAS POBLETE</t>
+          <t>SAMUEL ALONSO QUIROZ FUENTES</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>TRAUMATO_1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>7</v>
@@ -1728,7 +1728,7 @@
         <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SAMUEL ABRAHAN DAVILA LILLO</t>
+          <t>MAXIMILIANO ANTONIO URRUTIA SANDOVAL</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1758,7 +1758,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G36" t="n">
         <v>7</v>
@@ -1770,7 +1770,7 @@
         <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>LUIS FELIPE CONTRERAS PAINEPIL</t>
+          <t>MAXIMILIANO ANTONIO URRUTIA SANDOVAL</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G37" t="n">
         <v>7</v>
@@ -1812,7 +1812,7 @@
         <v>4</v>
       </c>
       <c r="J37" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NAHUEL ANTU MEDINA CARRASCO</t>
+          <t>MAXIMILIANO ANTONIO URRUTIA SANDOVAL</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G38" t="n">
         <v>7</v>
@@ -1854,7 +1854,7 @@
         <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DYLAND TOMÁS IGNACIO VIVEROS NICLOUX</t>
+          <t>FACUNDO ANDRES TORRES RIFFO</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>TRAUMATO_1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ESTEBAN ANDRES RIFFO FIERRO</t>
+          <t>GASPAR IGNACIO MORA MEZA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>OTORRINO_2</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G40" t="n">
         <v>7</v>
@@ -1938,7 +1938,7 @@
         <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
@@ -1960,12 +1960,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BLOQUE 6</t>
+          <t>BLOQUE 11</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FERNANDA  ANTONIA RAMIREZ GARCIA</t>
+          <t>ANDRIK ALEXANDER MANCILLA VALLEJOS</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1984,30 +1984,30 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BLOQUE 8</t>
+          <t>BLOQUE 12</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ROBERTO EDUARDO SANDOVAL CARDENAS</t>
+          <t>ANDRIK ALEXANDER MANCILLA VALLEJOS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G43" t="n">
         <v>5</v>
@@ -2038,18 +2038,18 @@
         <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BLOQUE 9</t>
+          <t>BLOQUE 13</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>EMILIA PAZ ORELLANA ORTIZ</t>
+          <t>JOAQUÍN ALEJANDRO CIFUENTES MORALES</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G44" t="n">
         <v>5</v>
@@ -2080,18 +2080,18 @@
         <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BLOQUE 12</t>
+          <t>BLOQUE 14</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>KRISHNA AINOHA VALENZUELA SÁNCHEZ</t>
+          <t>JOAQUÍN ALEJANDRO CIFUENTES MORALES</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G45" t="n">
         <v>5</v>
@@ -2122,18 +2122,18 @@
         <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BLOQUE 13</t>
+          <t>BLOQUE 15</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ANDRIK ALEXANDER MANCILLA VALLEJOS</t>
+          <t>FELIPE ESTEBAN SEGURA HENRIQUEZ</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G46" t="n">
         <v>5</v>
@@ -2164,97 +2164,45 @@
         <v>4</v>
       </c>
       <c r="J46" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BLOQUE 14</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>ANDRIK ALEXANDER MANCILLA VALLEJOS</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>TRAUMATO_1</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>GENERAL_1</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>TRAUMATOLOGIA</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>2</v>
-      </c>
-      <c r="G47" t="n">
-        <v>5</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>4</v>
-      </c>
-      <c r="J47" t="n">
-        <v>12</v>
-      </c>
+          <t>PABELLON 2</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BLOQUE 15</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>SAMARA AMALIA OñATTE URIBE</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>TRAUMATO_1</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>OTORRINO_2</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>TRAUMATOLOGIA</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" t="n">
-        <v>5</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>4</v>
-      </c>
-      <c r="J48" t="n">
-        <v>11</v>
-      </c>
+          <t>PABELLON 3</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PABELLON 2</t>
+          <t>DIA 2</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -2270,7 +2218,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PABELLON 3</t>
+          <t>PABELLON 0</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -2286,49 +2234,101 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>DIA 2</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+          <t>BLOQUE 8</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>COLOMBA FERNANDA OÑATE BARRIENTOS</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>OTORRINO_1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>GENERAL_1</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>OTORRINOLARINGOLOGIA</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>5</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PABELLON 0</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+          <t>BLOQUE 9</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>COLOMBA FERNANDA OÑATE BARRIENTOS</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>OTORRINO_1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>GENERAL_1</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>OTORRINOLARINGOLOGIA</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>5</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BLOQUE 8</t>
+          <t>BLOQUE 10</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>AILYN AGUSTINA PEREZ MORALES</t>
+          <t>COLOMBA FERNANDA OÑATE BARRIENTOS</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2342,16 +2342,16 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
         <v>5</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
         <v>7</v>
@@ -2360,22 +2360,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BLOQUE 9</t>
+          <t>BLOQUE 11</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DANIEL ESTEBAN SEGURA CISTERNA</t>
+          <t>ISIDORA MILLARAY MARIMAN TOLEDO</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>TRAUMATO_1</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2384,16 +2384,16 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
         <v>5</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
         <v>7</v>
@@ -2402,22 +2402,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BLOQUE 10</t>
+          <t>BLOQUE 12</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BELKAN MAXIMILIANO ERICES TAPIA</t>
+          <t>DANIEL ESTEBAN SEGURA CISTERNA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>TRAUMATO_1</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2426,40 +2426,40 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G55" t="n">
         <v>5</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BLOQUE 11</t>
+          <t>BLOQUE 13</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BELKAN MAXIMILIANO ERICES TAPIA</t>
+          <t>MAIRA CAROLINA PACHECO ORTIZ</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>TRAUMATO_1</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2468,35 +2468,35 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G56" t="n">
         <v>5</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BLOQUE 12</t>
+          <t>BLOQUE 14</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BENJAMIN IGNACIO ULLOA SALAZAR</t>
+          <t>JUAN PABLO CABRERA FLORES</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2510,16 +2510,16 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
         <v>5</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
         <v>7</v>
@@ -2528,12 +2528,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BLOQUE 13</t>
+          <t>BLOQUE 15</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>IGNACIO ALEJANDRO AREVALO RODRIGUEZ</t>
+          <t>ERIC TOMAS VASQUEZ ZAPATA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
         <v>5</v>
@@ -2564,118 +2564,118 @@
         <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BLOQUE 14</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>FELIPE  ALEJANDRO HERMOSILLA LUNA</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>OTORRINO_2</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>GENERAL_1</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>OTORRINOLARINGOLOGIA</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>5</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2</v>
-      </c>
-      <c r="J59" t="n">
-        <v>7</v>
-      </c>
+          <t>PABELLON 1</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BLOQUE 15</t>
+          <t>BLOQUE 12</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DIEGO EZEQUIEL PALMA PAILLAL</t>
+          <t>FLORENCIA SOFIA FERNANDEZ VILLEGAS</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>TRAUMATO_1</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>OTORRINOLARINGOLOGIA</t>
+          <t>TRAUMATOLOGIA</t>
         </is>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J60" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PABELLON 1</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+          <t>BLOQUE 13</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>FERNANDA  ANTONIA RAMIREZ GARCIA</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>TRAUMATO_1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>GENERAL_2</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>TRAUMATOLOGIA</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+      <c r="I61" t="n">
+        <v>4</v>
+      </c>
+      <c r="J61" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BLOQUE 11</t>
+          <t>BLOQUE 14</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>JOAQUÍN ALEJANDRO CIFUENTES MORALES</t>
+          <t>ROBERTO EDUARDO SANDOVAL CARDENAS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2694,7 +2694,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -2706,18 +2706,18 @@
         <v>4</v>
       </c>
       <c r="J62" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BLOQUE 12</t>
+          <t>BLOQUE 15</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>JOAQUÍN ALEJANDRO CIFUENTES MORALES</t>
+          <t>EMILIA FRANCISCA ORTIZ CABRERA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2736,7 +2736,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G63" t="n">
         <v>3</v>
@@ -2748,7 +2748,7 @@
         <v>4</v>
       </c>
       <c r="J63" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MARTIN ALEJANDRO ARTIGAS SUAZO</t>
+          <t>JOSE SOTO ROJAS</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2785,7 +2785,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2794,7 +2794,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>LUCIA AMPARO CACERES VALENZUELA</t>
+          <t>JOSE SOTO ROJAS</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2836,7 +2836,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G66" t="n">
         <v>3</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MATIAS DAVID BIZAMA OÑATE</t>
+          <t>JOAQUIN ANIBAL SEPULVEDA CATALAN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
@@ -2890,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SIMON LEONEL URIBE TORRES</t>
+          <t>EYTAN IGNACIO ISAY RUIZ PUIGAN</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>OTORRINO_2</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G68" t="n">
         <v>3</v>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MANUEL MAXIMILIANO RUBILAR DIAZ</t>
+          <t>MAXIMILIANO RUBEN ALONSO ARANEDA CEA</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>TRAUMATO_1</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BRUNO OROSMAN MARCHANT LOYOLA</t>
+          <t>MAXIMILIANO RUBEN ALONSO ARANEDA CEA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>GASPAR IGNACIO MORA MEZA</t>
+          <t>MAXIMILIANO RUBEN ALONSO ARANEDA CEA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>JOHAN MARCEL FAUNDEZ PARADA</t>
+          <t>MAXIMO YAMPIER LAZO ASTETE</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3127,12 +3127,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>FELIPE MARTIN ANDRES BARRA MERINO</t>
+          <t>EMILIA ISIDORA FLORES ASTETE</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3146,16 +3146,16 @@
         </is>
       </c>
       <c r="F74" t="n">
+        <v>3</v>
+      </c>
+      <c r="G74" t="n">
+        <v>4</v>
+      </c>
+      <c r="H74" t="n">
         <v>1</v>
       </c>
-      <c r="G74" t="n">
-        <v>3</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
         <v>8</v>
@@ -3169,17 +3169,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>AGUSTIN ANDRES PACHECO ORTIZ</t>
+          <t>MARTINA ARIANA SAN MARTIN INOSTROZA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3188,19 +3188,19 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
@@ -3211,17 +3211,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MAXIMO NICOLAS BURDILES DEL DESPOSITO</t>
+          <t>FELIPE  ALEJANDRO HERMOSILLA LUNA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>OTORRINO_1</t>
+          <t>OTORRINO_2</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3230,19 +3230,19 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J76" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MAXIMO NICOLAS BURDILES DEL DESPOSITO</t>
+          <t>KATALINA BAHAMONDES CARRASCO</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
         <v>4</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CARLOS ALEJANDRO SAEZ CEA</t>
+          <t>FELIPE MARTIN ANDRES BARRA MERINO</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>OTORRINO_1</t>
+          <t>TRAUMATO_1</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3337,17 +3337,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ANAIS MARTINA QUINTANA MUÑOZ</t>
+          <t>RENE ALONSO NOVOA ORMEÑO</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3356,19 +3356,19 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
@@ -3379,7 +3379,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TANIA EVOLET ALARCON MAUREIRA</t>
+          <t>FLORENCIA IGNACIA VARAS TARDON</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3389,7 +3389,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3398,7 +3398,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -3410,7 +3410,7 @@
         <v>4</v>
       </c>
       <c r="J80" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
@@ -3421,12 +3421,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MANUEL ALEJANDRO FLORES FIGUEROA</t>
+          <t>DANIEL ESTEBAN LAGOS THOMPSON</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3440,19 +3440,19 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>JOSIAS MATEO RAMIREZ JARA</t>
+          <t>BASTIAN ALONSO ALARCON GARCIA</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3514,7 +3514,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G84" t="n">
         <v>4</v>
@@ -3526,7 +3526,7 @@
         <v>4</v>
       </c>
       <c r="J84" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85">
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>FACUNDO ANDRES TORRES RIFFO</t>
+          <t>ANTONELLA PASCAL RIQUELME CARVALLO</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G85" t="n">
         <v>4</v>
@@ -3568,7 +3568,7 @@
         <v>4</v>
       </c>
       <c r="J85" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G86" t="n">
         <v>4</v>
@@ -3610,7 +3610,7 @@
         <v>4</v>
       </c>
       <c r="J86" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ANTONELLA PASCAL RIQUELME CARVALLO</t>
+          <t>MARTIN GONZALEZ MORIS</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G87" t="n">
         <v>4</v>
@@ -3652,7 +3652,7 @@
         <v>4</v>
       </c>
       <c r="J87" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MARCOS ARMANDO VASQUEZ CABRERA</t>
+          <t>SOFIA EMILIA GODOY LAGOS</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>TRAUMATO_1</t>
+          <t>OTORRINO_2</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G88" t="n">
         <v>4</v>
@@ -3694,7 +3694,7 @@
         <v>4</v>
       </c>
       <c r="J88" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89">
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MARCOS ARMANDO VASQUEZ CABRERA</t>
+          <t>CARLA FRANCISCA TORRES CANALES</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>TRAUMATO_1</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G89" t="n">
         <v>4</v>
@@ -3736,7 +3736,7 @@
         <v>4</v>
       </c>
       <c r="J89" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DIEGO IGNACIO SEPULVEDA BADILLA</t>
+          <t>CARLA FRANCISCA TORRES CANALES</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3766,7 +3766,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G90" t="n">
         <v>4</v>
@@ -3778,7 +3778,7 @@
         <v>4</v>
       </c>
       <c r="J90" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91">
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NOAH LEON COFRE SOBARZO</t>
+          <t>SIMON LEONEL URIBE TORRES</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
         <v>4</v>
@@ -3820,7 +3820,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92">
@@ -3842,12 +3842,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BLOQUE 12</t>
+          <t>BLOQUE 11</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ALEJANDRO ANTOLIN VALENZUELA DE LA HOZ</t>
+          <t>JOAQUIN IGNACIO MARTINEZ HUANQUE</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3884,12 +3884,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BLOQUE 13</t>
+          <t>BLOQUE 12</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>FLORENCIA SOFIA FERNANDEZ VILLEGAS</t>
+          <t>JOAQUIN IGNACIO MARTINEZ HUANQUE</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3899,7 +3899,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3908,7 +3908,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G94" t="n">
         <v>4</v>
@@ -3920,18 +3920,18 @@
         <v>4</v>
       </c>
       <c r="J94" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BLOQUE 15</t>
+          <t>BLOQUE 13</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MONTSERRAT VALENTINA FIGUEROA QUIJADA</t>
+          <t>EMILIA PAZ ORELLANA ORTIZ</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3950,7 +3950,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G95" t="n">
         <v>4</v>
@@ -3962,134 +3962,134 @@
         <v>4</v>
       </c>
       <c r="J95" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>PABELLON 2</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+          <t>BLOQUE 14</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>SOFIA ALEJANDRA REYES CALBUÑIR</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>TRAUMATO_1</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>GINECO_1</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>TRAUMATOLOGIA</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>4</v>
+      </c>
+      <c r="G96" t="n">
+        <v>4</v>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+      <c r="I96" t="n">
+        <v>4</v>
+      </c>
+      <c r="J96" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>PABELLON 3</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+          <t>BLOQUE 15</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>KRISHNA AINOHA VALENZUELA SÁNCHEZ</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>TRAUMATO_1</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>GINECO_1</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>TRAUMATOLOGIA</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>4</v>
+      </c>
+      <c r="G97" t="n">
+        <v>4</v>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+      <c r="I97" t="n">
+        <v>4</v>
+      </c>
+      <c r="J97" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BLOQUE 8</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>IZABELLA ARIADNA PEREZ GOMEZ</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>OTORRINO_2</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>OTORRINO_1</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>OTORRINOLARINGOLOGIA</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>0</v>
-      </c>
-      <c r="G98" t="n">
-        <v>6</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>2</v>
-      </c>
-      <c r="J98" t="n">
-        <v>10</v>
-      </c>
+          <t>PABELLON 2</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BLOQUE 9</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>ERIC TOMAS VASQUEZ ZAPATA</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>OTORRINO_2</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>GENERAL_1</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>OTORRINOLARINGOLOGIA</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>0</v>
-      </c>
-      <c r="G99" t="n">
-        <v>6</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>2</v>
-      </c>
-      <c r="J99" t="n">
-        <v>10</v>
-      </c>
+          <t>PABELLON 3</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BLOQUE 10</t>
+          <t>BLOQUE 8</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>LUIS FELIPE REYES BARRA</t>
+          <t>MAIKOL ANTONIO LAGOS TORRES</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4108,7 +4108,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
         <v>6</v>
@@ -4120,18 +4120,18 @@
         <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BLOQUE 11</t>
+          <t>BLOQUE 9</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>FLORENCIA JAVIERA MALDONADO RIQUEMLE</t>
+          <t>MAIKOL ANTONIO LAGOS TORRES</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>GINECO_1</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
         <v>6</v>
@@ -4162,18 +4162,18 @@
         <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BLOQUE 12</t>
+          <t>BLOQUE 10</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>AGUSTIN EDUARDO MARTINEZ SANHUEZA</t>
+          <t>MAIKOL ANTONIO LAGOS TORRES</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
         <v>6</v>
@@ -4204,18 +4204,18 @@
         <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BLOQUE 13</t>
+          <t>BLOQUE 11</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>BASTIAN ALBERTO CATALAN MARTINEZ</t>
+          <t>MAXIMO NICOLAS BURDILES DEL DESPOSITO</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4225,7 +4225,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4252,12 +4252,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BLOQUE 14</t>
+          <t>BLOQUE 12</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MAIRA CAROLINA PACHECO ORTIZ</t>
+          <t>MAXIMO NICOLAS BURDILES DEL DESPOSITO</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
         <v>6</v>
@@ -4288,176 +4288,176 @@
         <v>2</v>
       </c>
       <c r="J104" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BLOQUE 15</t>
+          <t>BLOQUE 13</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>FELIPE ALBERTO LOBOS CARCAMO</t>
+          <t>MAXIMILIANO SEBASTIAN CORREA PEREZ</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>OTORRINO_2</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>OTORRINO_1</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>GENERAL_1</t>
-        </is>
-      </c>
       <c r="E105" t="inlineStr">
         <is>
           <t>OTORRINOLARINGOLOGIA</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H105" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>DIA 4</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+          <t>BLOQUE 14</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>DENISE ALEJANDRA ROA SAAVEDRA</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>OTORRINO_2</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>OTORRINO_1</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>OTORRINOLARINGOLOGIA</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>6</v>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+      <c r="I106" t="n">
+        <v>2</v>
+      </c>
+      <c r="J106" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>PABELLON 0</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+          <t>BLOQUE 15</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>DIEGO EZEQUIEL PALMA PAILLAL</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>OTORRINO_2</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>OTORRINO_1</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>OTORRINOLARINGOLOGIA</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>6</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+      <c r="I107" t="n">
+        <v>2</v>
+      </c>
+      <c r="J107" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BLOQUE 8</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>MARTIN IGNACIO MACKAY ARRIAGADA</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>OTORRINO_2</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>OFTALMO_1</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>OTORRINOLARINGOLOGIA</t>
-        </is>
-      </c>
-      <c r="F108" t="n">
-        <v>1</v>
-      </c>
-      <c r="G108" t="n">
-        <v>1</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>2</v>
-      </c>
-      <c r="J108" t="n">
-        <v>6</v>
-      </c>
+          <t>DIA 4</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BLOQUE 9</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>MARTIN IGNACIO MACKAY ARRIAGADA</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>OTORRINO_2</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>OFTALMO_1</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>OTORRINOLARINGOLOGIA</t>
-        </is>
-      </c>
-      <c r="F109" t="n">
-        <v>1</v>
-      </c>
-      <c r="G109" t="n">
-        <v>1</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>2</v>
-      </c>
-      <c r="J109" t="n">
-        <v>6</v>
-      </c>
+          <t>PABELLON 0</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BLOQUE 10</t>
+          <t>BLOQUE 8</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>COLOMBA FERNANDA OÑATE BARRIENTOS</t>
+          <t>CARLOS ALEJANDRO SAEZ CEA</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
         <v>6</v>
@@ -4488,18 +4488,18 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BLOQUE 11</t>
+          <t>BLOQUE 9</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>COLOMBA FERNANDA OÑATE BARRIENTOS</t>
+          <t>GERARDO ALEXIS BENAVIDES PARRA</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4536,12 +4536,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BLOQUE 12</t>
+          <t>BLOQUE 10</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>COLOMBA FERNANDA OÑATE BARRIENTOS</t>
+          <t>VICTOR ANTONIO ROJAS REVECO</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4551,7 +4551,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>OTORRINO_2</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4578,12 +4578,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BLOQUE 13</t>
+          <t>BLOQUE 11</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>BRUNO ALBERTO LAGAZZI CARRILLO</t>
+          <t>MARTIN IGNACIO LOYOLA GAVILAN</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4620,22 +4620,22 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BLOQUE 14</t>
+          <t>BLOQUE 12</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>RENE ALONSO NOVOA ORMEÑO</t>
+          <t>MARTIN IGNACIO LOYOLA GAVILAN</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4644,40 +4644,40 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BLOQUE 15</t>
+          <t>BLOQUE 13</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>FLORENCIA IGNACIA VARAS TARDON</t>
+          <t>MARTIN IGNACIO LOYOLA GAVILAN</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4686,51 +4686,77 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>PABELLON 1</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+          <t>BLOQUE 14</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>EDER ENRIQUE CABRERA MEDRANO</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>OTORRINO_1</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>GENERAL_1</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>OTORRINOLARINGOLOGIA</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>1</v>
+      </c>
+      <c r="G116" t="n">
+        <v>6</v>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BLOQUE 2</t>
+          <t>BLOQUE 15</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>JOAQUIN IGNACIO MARTINEZ HUANQUE</t>
+          <t>AGUSTÍN MAXIMILIANO SALINAS BELTRÁN</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>TRAUMATO_1</t>
+          <t>OTORRINO_2</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4740,76 +4766,50 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>TRAUMATOLOGIA</t>
+          <t>OTORRINOLARINGOLOGIA</t>
         </is>
       </c>
       <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1</v>
+      </c>
+      <c r="H117" t="n">
         <v>2</v>
       </c>
-      <c r="G117" t="n">
-        <v>3</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BLOQUE 3</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>JOAQUIN IGNACIO MARTINEZ HUANQUE</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>TRAUMATO_1</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>GENERAL_1</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>TRAUMATOLOGIA</t>
-        </is>
-      </c>
-      <c r="F118" t="n">
-        <v>2</v>
-      </c>
-      <c r="G118" t="n">
-        <v>3</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="n">
-        <v>6</v>
-      </c>
+          <t>PABELLON 1</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BLOQUE 5</t>
+          <t>BLOQUE 6</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>EMILIA FRANCISCA ORTIZ CABRERA</t>
+          <t>SAMARA AMALIA OñATTE URIBE</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4819,7 +4819,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G119" t="n">
         <v>3</v>
@@ -4840,7 +4840,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>FELIPE ESTEBAN SEGURA HENRIQUEZ</t>
+          <t>TAMARA STEFANIA RIQUELME CARRASCO</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4888,138 +4888,138 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BLOQUE 14</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>TAMARA STEFANIA RIQUELME CARRASCO</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>TRAUMATO_1</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>OTORRINO_2</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>TRAUMATOLOGIA</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
-        <v>1</v>
-      </c>
-      <c r="G121" t="n">
-        <v>5</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>4</v>
-      </c>
-      <c r="J121" t="n">
-        <v>10</v>
-      </c>
+          <t>PABELLON 2</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BLOQUE 15</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>SOFIA ALEJANDRA REYES CALBUÑIR</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>TRAUMATO_1</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>OTORRINO_2</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>TRAUMATOLOGIA</t>
-        </is>
-      </c>
-      <c r="F122" t="n">
-        <v>1</v>
-      </c>
-      <c r="G122" t="n">
-        <v>5</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>4</v>
-      </c>
-      <c r="J122" t="n">
-        <v>10</v>
-      </c>
+          <t>PABELLON 3</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>PABELLON 2</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+          <t>BLOQUE 8</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>YANHI YETSABEL AMARIE GARRIDO GARCIA</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>OTORRINO_2</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>GINECO_1</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>OTORRINOLARINGOLOGIA</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>1</v>
+      </c>
+      <c r="G123" t="n">
+        <v>4</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+      <c r="I123" t="n">
+        <v>2</v>
+      </c>
+      <c r="J123" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>PABELLON 3</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+          <t>BLOQUE 9</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>YANHI YETSABEL AMARIE GARRIDO GARCIA</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>OTORRINO_2</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>GINECO_1</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>OTORRINOLARINGOLOGIA</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>1</v>
+      </c>
+      <c r="G124" t="n">
+        <v>4</v>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+      <c r="I124" t="n">
+        <v>2</v>
+      </c>
+      <c r="J124" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BLOQUE 8</t>
+          <t>BLOQUE 10</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>JUAN PABLO CABRERA FLORES</t>
+          <t>YANHI YETSABEL AMARIE GARRIDO GARCIA</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>OTORRINO_1</t>
+          <t>OTORRINO_2</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5031,37 +5031,37 @@
         <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H125" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J125" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BLOQUE 9</t>
+          <t>BLOQUE 11</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>CARLOS ANDRAS TOLOZA RIOS</t>
+          <t>BELKAN MAXIMILIANO ERICES TAPIA</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>OTORRINO_1</t>
+          <t>OTORRINO_2</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5070,30 +5070,30 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H126" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J126" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BLOQUE 10</t>
+          <t>BLOQUE 12</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DANIEL ESTEBAN LAGOS THOMPSON</t>
+          <t>BELKAN MAXIMILIANO ERICES TAPIA</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5130,12 +5130,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BLOQUE 11</t>
+          <t>BLOQUE 13</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MAIKOL ANTONIO LAGOS TORRES</t>
+          <t>CARLOS ANDRAS TOLOZA RIOS</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5145,7 +5145,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5172,12 +5172,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BLOQUE 12</t>
+          <t>BLOQUE 14</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MAIKOL ANTONIO LAGOS TORRES</t>
+          <t>AGUSTIN EDUARDO MARTINEZ SANHUEZA</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5214,22 +5214,22 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BLOQUE 13</t>
+          <t>BLOQUE 15</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MAIKOL ANTONIO LAGOS TORRES</t>
+          <t>BENJAMIN IGNACIO ULLOA SALAZAR</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5238,146 +5238,146 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G130" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BLOQUE 14</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>SOFIA KASSANDRA CARILAO PALMA</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>OTORRINO_1</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>OFTALMO_1</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>OTORRINOLARINGOLOGIA</t>
-        </is>
-      </c>
-      <c r="F131" t="n">
-        <v>3</v>
-      </c>
-      <c r="G131" t="n">
-        <v>6</v>
-      </c>
-      <c r="H131" t="n">
-        <v>4</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>13</v>
-      </c>
+          <t>DIA 5</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BLOQUE 15</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>MATTEO BENJAMIN GILLI HOPPER</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>OTORRINO_1</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>GINECO_1</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>OTORRINOLARINGOLOGIA</t>
-        </is>
-      </c>
-      <c r="F132" t="n">
-        <v>3</v>
-      </c>
-      <c r="G132" t="n">
-        <v>6</v>
-      </c>
-      <c r="H132" t="n">
-        <v>4</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>13</v>
-      </c>
+          <t>PABELLON 0</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>DIA 5</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+          <t>BLOQUE 8</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>ALEX EDUARDO PALLALEO ASTUDILLO</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>INFANTIL_1</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>GENERAL_1</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>CIRUGIA INFANTIL</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>1</v>
+      </c>
+      <c r="G133" t="n">
+        <v>3</v>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+      <c r="I133" t="n">
+        <v>4</v>
+      </c>
+      <c r="J133" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>PABELLON 0</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+          <t>BLOQUE 9</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>SANTIAGO IGNACIO ZUÑIGA VALLEJOS</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>INFANTIL_1</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>OFTALMO_1</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>CIRUGIA INFANTIL</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>3</v>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+      <c r="I134" t="n">
+        <v>4</v>
+      </c>
+      <c r="J134" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BLOQUE 8</t>
+          <t>BLOQUE 10</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>SOFIA EMILIA GODOY LAGOS</t>
+          <t>GASPAR ALONSO ESCOBAR LUENGO</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -5408,18 +5408,18 @@
         <v>4</v>
       </c>
       <c r="J135" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BLOQUE 9</t>
+          <t>BLOQUE 11</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>CRISTOBAL IGNACIO SOLAR MENDEZ</t>
+          <t>AGUSTIN ALONSO SANHUEZA AGUILERA</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5429,7 +5429,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5438,7 +5438,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G136" t="n">
         <v>3</v>
@@ -5450,18 +5450,18 @@
         <v>4</v>
       </c>
       <c r="J136" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BLOQUE 10</t>
+          <t>BLOQUE 12</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CRISTOBAL IGNACIO SOLAR MENDEZ</t>
+          <t>EMMA ABIGAIL RIQUELME ARCOS</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5471,7 +5471,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>TRAUMATO_1</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -5480,7 +5480,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
         <v>3</v>
@@ -5492,18 +5492,18 @@
         <v>4</v>
       </c>
       <c r="J137" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BLOQUE 11</t>
+          <t>BLOQUE 13</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>JOSE SOTO ROJAS</t>
+          <t>AARON JOSé LUIS CAYUPI BURGOS</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5513,7 +5513,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>GINECO_1</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5540,12 +5540,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BLOQUE 12</t>
+          <t>BLOQUE 14</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>JOSE SOTO ROJAS</t>
+          <t>DAVID ALONSO CALDERON VALENZUELA</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5555,7 +5555,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>GINECO_1</t>
+          <t>OTORRINO_2</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -5576,18 +5576,18 @@
         <v>4</v>
       </c>
       <c r="J139" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BLOQUE 13</t>
+          <t>BLOQUE 15</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>GASPAR ALONSO ESCOBAR LUENGO</t>
+          <t>MARTIN ALEJANDRO ARTIGAS SUAZO</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5597,7 +5597,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5606,7 +5606,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G140" t="n">
         <v>3</v>
@@ -5618,97 +5618,45 @@
         <v>4</v>
       </c>
       <c r="J140" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BLOQUE 14</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>FRANCISCO IGNACIO OLATE MELLADO</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>INFANTIL_1</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>GENERAL_1</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>CIRUGIA INFANTIL</t>
-        </is>
-      </c>
-      <c r="F141" t="n">
-        <v>1</v>
-      </c>
-      <c r="G141" t="n">
-        <v>3</v>
-      </c>
-      <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>4</v>
-      </c>
-      <c r="J141" t="n">
-        <v>10</v>
-      </c>
+          <t>PABELLON 1</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BLOQUE 15</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>PABLO SEBASTIAN INOSTROZA ECHEVERRIA</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>INFANTIL_1</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>GENERAL_2</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>CIRUGIA INFANTIL</t>
-        </is>
-      </c>
-      <c r="F142" t="n">
-        <v>4</v>
-      </c>
-      <c r="G142" t="n">
-        <v>3</v>
-      </c>
-      <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>4</v>
-      </c>
-      <c r="J142" t="n">
-        <v>13</v>
-      </c>
+          <t>PABELLON 2</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>PABELLON 1</t>
+          <t>PABELLON 3</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
@@ -5724,54 +5672,106 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>PABELLON 2</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+          <t>BLOQUE 8</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>BENJAMIN EDUARDO CABEZA PROVOSTE</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>OTORRINO_2</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>OTORRINO_1</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>OTORRINOLARINGOLOGIA</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>6</v>
+      </c>
+      <c r="H144" t="n">
+        <v>3</v>
+      </c>
+      <c r="I144" t="n">
+        <v>2</v>
+      </c>
+      <c r="J144" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>PABELLON 3</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr"/>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+          <t>BLOQUE 9</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>BENJAMIN EDUARDO CABEZA PROVOSTE</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>OTORRINO_2</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>OTORRINO_1</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>OTORRINOLARINGOLOGIA</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>6</v>
+      </c>
+      <c r="H145" t="n">
+        <v>3</v>
+      </c>
+      <c r="I145" t="n">
+        <v>2</v>
+      </c>
+      <c r="J145" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>BLOQUE 8</t>
+          <t>BLOQUE 10</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ISIDORA MILLARAY MARIMAN TOLEDO</t>
+          <t>ANTONELLA GERALDINE RODRIGUEZ ESPINOZA</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5780,40 +5780,40 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G146" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>BLOQUE 9</t>
+          <t>BLOQUE 11</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>EVAN PILLIPS FUENTES MONTENEGRO</t>
+          <t>MATTEO BENJAMIN GILLI HOPPER</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5825,27 +5825,27 @@
         <v>3</v>
       </c>
       <c r="G147" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>BLOQUE 10</t>
+          <t>BLOQUE 12</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>VICTOR ANTONIO ROJAS REVECO</t>
+          <t>IGNACIO ALEJANDRO AREVALO RODRIGUEZ</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5855,7 +5855,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5864,7 +5864,7 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G148" t="n">
         <v>4</v>
@@ -5876,28 +5876,28 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>BLOQUE 11</t>
+          <t>BLOQUE 13</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MARTIN IGNACIO LOYOLA GAVILAN</t>
+          <t>ANALIA SOPHEE WLACH FUENTES</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5906,40 +5906,40 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G149" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>BLOQUE 12</t>
+          <t>BLOQUE 14</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MARTIN IGNACIO LOYOLA GAVILAN</t>
+          <t>BRUNO ALBERTO LAGAZZI CARRILLO</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5948,40 +5948,40 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G150" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>BLOQUE 13</t>
+          <t>BLOQUE 15</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MARTIN IGNACIO LOYOLA GAVILAN</t>
+          <t>FELIPE ALBERTO LOBOS CARCAMO</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5990,104 +5990,44 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G151" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>BLOQUE 14</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>ANALIA SOPHEE WLACH FUENTES</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>OTORRINO_2</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>GENERAL_2</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>OTORRINOLARINGOLOGIA</t>
-        </is>
-      </c>
-      <c r="F152" t="n">
-        <v>3</v>
-      </c>
-      <c r="G152" t="n">
-        <v>6</v>
-      </c>
-      <c r="H152" t="n">
-        <v>3</v>
-      </c>
-      <c r="I152" t="n">
-        <v>2</v>
-      </c>
-      <c r="J152" t="n">
-        <v>14</v>
-      </c>
+      <c r="A152" t="inlineStr"/>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>BLOQUE 15</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>EDWARD EMILIANO CONCHA RAMIREZ</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>OTORRINO_1</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>OTORRINO_2</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>OTORRINOLARINGOLOGIA</t>
-        </is>
-      </c>
-      <c r="F153" t="n">
-        <v>4</v>
-      </c>
-      <c r="G153" t="n">
-        <v>4</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>8</v>
-      </c>
+      <c r="A153" t="inlineStr"/>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr"/>
